--- a/data/trans_orig/P04A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04A-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>2990</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8238</v>
+        <v>8468</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004308454656555123</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001309222715515896</v>
+        <v>0.001310512792503185</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01186978373556789</v>
+        <v>0.01220156917619402</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>7199</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2874</v>
+        <v>2783</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15053</v>
+        <v>14521</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01045839873946693</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004174936024499536</v>
+        <v>0.004043169306632542</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02186787996873513</v>
+        <v>0.02109567790053235</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -786,19 +786,19 @@
         <v>10189</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5399</v>
+        <v>5141</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19166</v>
+        <v>19743</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007370833976121275</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003905360855869535</v>
+        <v>0.003719306328413447</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01386487455113259</v>
+        <v>0.01428188397692967</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>4865</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1886</v>
+        <v>1905</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10605</v>
+        <v>10357</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007010328597846173</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002717265244336744</v>
+        <v>0.002745354644647981</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01528102103382451</v>
+        <v>0.01492300646613343</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9704</v>
+        <v>10846</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.003865205957157883</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01409817121419283</v>
+        <v>0.01575667317373578</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -857,19 +857,19 @@
         <v>7526</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2929</v>
+        <v>3034</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15199</v>
+        <v>16275</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.005444207279913334</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002119047787043372</v>
+        <v>0.002195112347865037</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01099475626082526</v>
+        <v>0.01177317701986692</v>
       </c>
     </row>
     <row r="6">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7196</v>
+        <v>7091</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002982167630763214</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01036935113184326</v>
+        <v>0.01021789509460269</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8635</v>
+        <v>9244</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002241347479028538</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01254466937369492</v>
+        <v>0.01342952948305424</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -928,19 +928,19 @@
         <v>3612</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11097</v>
+        <v>10656</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002613274469849142</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0007354648126508533</v>
+        <v>0.0007389482264641037</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.008027365731355051</v>
+        <v>0.007708837808916539</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>39294</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27146</v>
+        <v>27085</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56992</v>
+        <v>54064</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05661827220570774</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03911430434289935</v>
+        <v>0.03902725903201239</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0821199569452285</v>
+        <v>0.07790104242080556</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -978,19 +978,19 @@
         <v>29143</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19277</v>
+        <v>19005</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42103</v>
+        <v>43473</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04233765840279047</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.028005225184273</v>
+        <v>0.0276090914374603</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06116449137095079</v>
+        <v>0.06315475806144903</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -999,19 +999,19 @@
         <v>68437</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>53329</v>
+        <v>52272</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90243</v>
+        <v>89475</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04950720651288623</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03857822775363946</v>
+        <v>0.0378137593872052</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06528194480816042</v>
+        <v>0.064726358060623</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>644793</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>627752</v>
+        <v>629622</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>658342</v>
+        <v>657486</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9290807769091277</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9045256783020241</v>
+        <v>0.9072205052603777</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9486030540016451</v>
+        <v>0.9473704693695616</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>662</v>
@@ -1049,19 +1049,19 @@
         <v>647805</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>631865</v>
+        <v>631414</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>659475</v>
+        <v>659410</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9410973894215562</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9179397646307089</v>
+        <v>0.9172851035100268</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9580499211272757</v>
+        <v>0.9579560454433835</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1302</v>
@@ -1070,19 +1070,19 @@
         <v>1292599</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1269448</v>
+        <v>1268970</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1311037</v>
+        <v>1310779</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.93506447776123</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9183171451994045</v>
+        <v>0.9179713047575547</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9484029506756246</v>
+        <v>0.9482159008902927</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>7506</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3132</v>
+        <v>3097</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14579</v>
+        <v>13505</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007803964153671249</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00325639691168416</v>
+        <v>0.003220385970548991</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01515830306699698</v>
+        <v>0.01404133279824565</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1195,19 +1195,19 @@
         <v>7673</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3132</v>
+        <v>3259</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14622</v>
+        <v>15592</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007923902629451494</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003234300109462278</v>
+        <v>0.003365796993012529</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01509918096399437</v>
+        <v>0.0161010646108122</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1216,19 +1216,19 @@
         <v>15179</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8701</v>
+        <v>8549</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25195</v>
+        <v>25084</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007864138231358885</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004507588921392846</v>
+        <v>0.004429035713266726</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01305328617606059</v>
+        <v>0.01299548809816707</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>11276</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6197</v>
+        <v>5375</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20369</v>
+        <v>19683</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01172385612562703</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006443423091420441</v>
+        <v>0.005588600441299736</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0211784161198118</v>
+        <v>0.02046433820097726</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5546</v>
+        <v>5769</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.001896427689471179</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.005726944429736348</v>
+        <v>0.005956996740035861</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -1287,19 +1287,19 @@
         <v>13112</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7117</v>
+        <v>7962</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22638</v>
+        <v>22764</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006793357898599215</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00368697237117695</v>
+        <v>0.004125004174774297</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0117281752038022</v>
+        <v>0.01179371832091878</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>4297</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13399</v>
+        <v>11953</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.004467460474196914</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0009528924942558297</v>
+        <v>0.0009554919535110903</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01393109924207539</v>
+        <v>0.01242812677839471</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1337,19 +1337,19 @@
         <v>3408</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9980</v>
+        <v>8900</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.003519583970181323</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001090442363639953</v>
+        <v>0.001084942382489523</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01030568470314486</v>
+        <v>0.00919010405212956</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -1358,19 +1358,19 @@
         <v>7705</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3156</v>
+        <v>3041</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17548</v>
+        <v>17080</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.00399190336860701</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001634966998132728</v>
+        <v>0.001575595346083288</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.009091471484922965</v>
+        <v>0.008848814897290384</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>100966</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80985</v>
+        <v>81097</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122187</v>
+        <v>121235</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1049762453219726</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08420111938360668</v>
+        <v>0.08431820647303857</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1270403924467232</v>
+        <v>0.1260502363443211</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -1408,19 +1408,19 @@
         <v>80741</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63227</v>
+        <v>64346</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101550</v>
+        <v>98936</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08337641288888271</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06529104732536561</v>
+        <v>0.06644585650952971</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1048641007272904</v>
+        <v>0.102165504040945</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>150</v>
@@ -1429,19 +1429,19 @@
         <v>181707</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>153643</v>
+        <v>154572</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>212731</v>
+        <v>212751</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09413943931444842</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07959988221218091</v>
+        <v>0.08008135115301244</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1102125327685945</v>
+        <v>0.1102225799226456</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>837755</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>813593</v>
+        <v>816078</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>859011</v>
+        <v>859922</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8710284739245323</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8459062396282242</v>
+        <v>0.8484906115750359</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8931280160175492</v>
+        <v>0.894075577575181</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>828</v>
@@ -1479,19 +1479,19 @@
         <v>874734</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>851415</v>
+        <v>856881</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>892950</v>
+        <v>892903</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9032836728220133</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8792044697474716</v>
+        <v>0.8848483797885531</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9220947158235194</v>
+        <v>0.9220462872465607</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1621</v>
@@ -1500,19 +1500,19 @@
         <v>1712489</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1678689</v>
+        <v>1678864</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1742718</v>
+        <v>1741754</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8872111611869865</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.869699930592402</v>
+        <v>0.8697908629464682</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9028726125266939</v>
+        <v>0.9023730150749051</v>
       </c>
     </row>
     <row r="15">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6266</v>
+        <v>7318</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003078400099120139</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.009234627964494242</v>
+        <v>0.01078566830304122</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5872</v>
+        <v>5441</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001434170752576527</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.008586314266328107</v>
+        <v>0.007957156210758451</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1646,19 +1646,19 @@
         <v>3069</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8265</v>
+        <v>8356</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002253067739331749</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0007225884335268725</v>
+        <v>0.0007163292165302327</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006066588796719972</v>
+        <v>0.006133365673527812</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>4370</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1032</v>
+        <v>1625</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10098</v>
+        <v>12008</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006441243912443471</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001520980505713689</v>
+        <v>0.002395237803983244</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01488262405800165</v>
+        <v>0.0176972676474594</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1696,19 +1696,19 @@
         <v>4751</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1172</v>
+        <v>1832</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10377</v>
+        <v>10566</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006948230483692488</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001713844955032893</v>
+        <v>0.002678295576818414</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01517483356195666</v>
+        <v>0.0154512907276205</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -1717,19 +1717,19 @@
         <v>9122</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4483</v>
+        <v>4651</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17107</v>
+        <v>16818</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0066957293491069</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003290793224585804</v>
+        <v>0.003414304232989052</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01255678652802855</v>
+        <v>0.01234457026988596</v>
       </c>
     </row>
     <row r="18">
@@ -1793,19 +1793,19 @@
         <v>81598</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>64141</v>
+        <v>62259</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>102655</v>
+        <v>102146</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1202608108193213</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09453200212244282</v>
+        <v>0.09175924011424788</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1512954588468013</v>
+        <v>0.1505442887361773</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>72</v>
@@ -1814,19 +1814,19 @@
         <v>80915</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>62278</v>
+        <v>63400</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>98868</v>
+        <v>99311</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1183240778670398</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09107041035495421</v>
+        <v>0.09271117780835328</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1445780151154486</v>
+        <v>0.1452245709080487</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>136</v>
@@ -1835,19 +1835,19 @@
         <v>162513</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>138826</v>
+        <v>133946</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>188818</v>
+        <v>188405</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1192886542396163</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1019016375632739</v>
+        <v>0.09831956494749759</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.138597119847229</v>
+        <v>0.1382941220640172</v>
       </c>
     </row>
     <row r="20">
@@ -1864,19 +1864,19 @@
         <v>590452</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>568217</v>
+        <v>568601</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>608291</v>
+        <v>608765</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8702195451691151</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8374494855209531</v>
+        <v>0.8380156541695192</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8965113249265532</v>
+        <v>0.8972104711483818</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>618</v>
@@ -1885,19 +1885,19 @@
         <v>597194</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>577920</v>
+        <v>577663</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>615377</v>
+        <v>614145</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8732935208966912</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8451087527274019</v>
+        <v>0.8447326209514141</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8998827305225671</v>
+        <v>0.8980822878550819</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1189</v>
@@ -1906,19 +1906,19 @@
         <v>1187646</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1160266</v>
+        <v>1161155</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1215354</v>
+        <v>1215792</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.871762548671945</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8516649046450377</v>
+        <v>0.8523178481886915</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8921012341651309</v>
+        <v>0.8924227837606438</v>
       </c>
     </row>
     <row r="21">
@@ -2013,16 +2013,16 @@
         <v>817</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6784</v>
+        <v>6884</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00270718971787022</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0008672755952912338</v>
+        <v>0.0008667755191449088</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.007199707676277345</v>
+        <v>0.007305665329638071</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4887</v>
+        <v>4876</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0009372733484236029</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.004705456087984761</v>
+        <v>0.004694329159061378</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -2052,19 +2052,19 @@
         <v>3524</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>853</v>
+        <v>876</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8162</v>
+        <v>8761</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001779168342373515</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0004305662006133695</v>
+        <v>0.0004420068655564344</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.00412061198811395</v>
+        <v>0.004422673220766235</v>
       </c>
     </row>
     <row r="23">
@@ -2081,19 +2081,19 @@
         <v>7418</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3273</v>
+        <v>3344</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14739</v>
+        <v>15408</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.007873266387481421</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003473350928422331</v>
+        <v>0.003548832432440343</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01564273869423947</v>
+        <v>0.01635321562088411</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -2102,19 +2102,19 @@
         <v>4205</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1068</v>
+        <v>1079</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9957</v>
+        <v>10829</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.004048814967656304</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001028665113450227</v>
+        <v>0.001038952979055934</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.009586896489155526</v>
+        <v>0.01042677033553672</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>11</v>
@@ -2123,19 +2123,19 @@
         <v>11624</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6152</v>
+        <v>5740</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20616</v>
+        <v>21774</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.005867989342523575</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003106009295701596</v>
+        <v>0.002897846428106529</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01040798691316857</v>
+        <v>0.01099216920843415</v>
       </c>
     </row>
     <row r="24">
@@ -2152,19 +2152,19 @@
         <v>9025</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4425</v>
+        <v>4524</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15957</v>
+        <v>15993</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.009578773518616</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004696479093099757</v>
+        <v>0.004801603833011273</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01693551248883994</v>
+        <v>0.01697325914674524</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -2173,19 +2173,19 @@
         <v>9454</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4269</v>
+        <v>3957</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17230</v>
+        <v>16855</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.009102698417516311</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004110612023906811</v>
+        <v>0.003810296500328545</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01658936584110971</v>
+        <v>0.01622797931166911</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -2194,19 +2194,19 @@
         <v>18480</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11430</v>
+        <v>11386</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>28444</v>
+        <v>27999</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.009329152758116225</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005770452939282389</v>
+        <v>0.005747955687848097</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01435979886650098</v>
+        <v>0.01413470475813257</v>
       </c>
     </row>
     <row r="25">
@@ -2223,19 +2223,19 @@
         <v>173870</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>148917</v>
+        <v>148999</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>198886</v>
+        <v>196380</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1845322154601652</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1580483814227112</v>
+        <v>0.1581356530988542</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2110813685625672</v>
+        <v>0.2084226971726361</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>142</v>
@@ -2244,19 +2244,19 @@
         <v>157606</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>135346</v>
+        <v>135189</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>185129</v>
+        <v>185842</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1517467819304224</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1303142483554152</v>
+        <v>0.1301631008584598</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1782462319659261</v>
+        <v>0.1789332352389073</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>304</v>
@@ -2265,19 +2265,19 @@
         <v>331476</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>297864</v>
+        <v>297030</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>369525</v>
+        <v>366050</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1673418082489812</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1503728869607268</v>
+        <v>0.1499520722120695</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1865503647725056</v>
+        <v>0.1847959690882394</v>
       </c>
     </row>
     <row r="26">
@@ -2294,19 +2294,19 @@
         <v>749357</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>724109</v>
+        <v>726372</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>774407</v>
+        <v>776406</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7953085549158672</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7685115964533779</v>
+        <v>0.7709139066528459</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8218944717395756</v>
+        <v>0.8240157648092273</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>841</v>
@@ -2315,19 +2315,19 @@
         <v>866373</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>838917</v>
+        <v>838099</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>890801</v>
+        <v>889248</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8341644313359814</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8077292248582247</v>
+        <v>0.8069411220965598</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8576839581491857</v>
+        <v>0.8561886528870228</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1653</v>
@@ -2336,19 +2336,19 @@
         <v>1615730</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1579639</v>
+        <v>1581774</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1650463</v>
+        <v>1651464</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8156818813080055</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7974614017898956</v>
+        <v>0.7985394527923739</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.833216112649947</v>
+        <v>0.8337216157519091</v>
       </c>
     </row>
     <row r="27">
@@ -2440,19 +2440,19 @@
         <v>15135</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8860</v>
+        <v>9005</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>24608</v>
+        <v>24733</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004619340509290058</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00270405320047719</v>
+        <v>0.002748343256867982</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.007510287032535694</v>
+        <v>0.007548370937561344</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -2461,19 +2461,19 @@
         <v>16827</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9176</v>
+        <v>10132</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>28116</v>
+        <v>27672</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.004979499332549223</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002715297085132875</v>
+        <v>0.002998233411121078</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.008320277775867047</v>
+        <v>0.008188781996447283</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>31</v>
@@ -2482,19 +2482,19 @@
         <v>31962</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>22784</v>
+        <v>22220</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>44997</v>
+        <v>45691</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.004802197353311513</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003423230178256833</v>
+        <v>0.003338446055306611</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.006760564816695119</v>
+        <v>0.006864957904129547</v>
       </c>
     </row>
     <row r="29">
@@ -2511,19 +2511,19 @@
         <v>27930</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18992</v>
+        <v>17822</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>40313</v>
+        <v>39262</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.008524247577108618</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005796504031634685</v>
+        <v>0.005439356069996203</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.012303635737908</v>
+        <v>0.01198285570512145</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -2532,19 +2532,19 @@
         <v>13454</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7547</v>
+        <v>7374</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23673</v>
+        <v>23061</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.003981341857051107</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002233512459744685</v>
+        <v>0.002182246489381799</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.007005466452248253</v>
+        <v>0.006824341822401269</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>40</v>
@@ -2553,19 +2553,19 @@
         <v>41384</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30347</v>
+        <v>30653</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>55276</v>
+        <v>55881</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.006217761246607228</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004559499373585078</v>
+        <v>0.004605545127465441</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.00830496602029538</v>
+        <v>0.008395953977623905</v>
       </c>
     </row>
     <row r="30">
@@ -2582,19 +2582,19 @@
         <v>15392</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8153</v>
+        <v>8358</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24629</v>
+        <v>25211</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.004697571530611167</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.002488269206929398</v>
+        <v>0.002550850334892301</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.007516735210079955</v>
+        <v>0.007694331398129904</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>13</v>
@@ -2603,19 +2603,19 @@
         <v>14405</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7959</v>
+        <v>7860</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>24913</v>
+        <v>25417</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.00426294931785279</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002355272982369692</v>
+        <v>0.002326044489686253</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.007372327321500633</v>
+        <v>0.007521547484283776</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>28</v>
@@ -2624,19 +2624,19 @@
         <v>29797</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20117</v>
+        <v>19960</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>42718</v>
+        <v>42240</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.00447690875343014</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.003022572594222518</v>
+        <v>0.002998891560133062</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.006418220035474349</v>
+        <v>0.006346457535051174</v>
       </c>
     </row>
     <row r="31">
@@ -2653,19 +2653,19 @@
         <v>395728</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>356616</v>
+        <v>360125</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>435327</v>
+        <v>437719</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1207761554720217</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1088389788644158</v>
+        <v>0.1099100877291272</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.132861784570967</v>
+        <v>0.1335917404178344</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>306</v>
@@ -2674,19 +2674,19 @@
         <v>348405</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>315519</v>
+        <v>310517</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>390988</v>
+        <v>387199</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1031029523099967</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09337111845965353</v>
+        <v>0.09189088021507495</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1157045511477842</v>
+        <v>0.1145832022422354</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>647</v>
@@ -2695,19 +2695,19 @@
         <v>744134</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>693752</v>
+        <v>693077</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>796587</v>
+        <v>797683</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1118032636663629</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1042336481635102</v>
+        <v>0.10413216736405</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1196842062889564</v>
+        <v>0.1198488418124087</v>
       </c>
     </row>
     <row r="32">
@@ -2724,19 +2724,19 @@
         <v>2822357</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2779624</v>
+        <v>2777172</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2860309</v>
+        <v>2859109</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8613826849109685</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.848340597214342</v>
+        <v>0.8475921546070919</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8729656236920722</v>
+        <v>0.8725991744845083</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2949</v>
@@ -2745,19 +2745,19 @@
         <v>2986106</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2943977</v>
+        <v>2941924</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3024624</v>
+        <v>3025176</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8836732571825502</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8712062063721812</v>
+        <v>0.8705986662967968</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8950719257466931</v>
+        <v>0.8952351209178014</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5765</v>
@@ -2766,19 +2766,19 @@
         <v>5808464</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5751108</v>
+        <v>5751544</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5862433</v>
+        <v>5863789</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8726998689802882</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.864082266563435</v>
+        <v>0.8641477429144888</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8808084327611279</v>
+        <v>0.8810121936423789</v>
       </c>
     </row>
     <row r="33">
@@ -3110,19 +3110,19 @@
         <v>13325</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7218</v>
+        <v>7398</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23884</v>
+        <v>23704</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01894187080760879</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01026043202755711</v>
+        <v>0.01051630696558873</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03395242561716422</v>
+        <v>0.03369519715084047</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -3131,19 +3131,19 @@
         <v>6052</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2268</v>
+        <v>2857</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12512</v>
+        <v>13207</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008697535557677155</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003259799145037148</v>
+        <v>0.004105510527139078</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01798048144235981</v>
+        <v>0.01897979550595588</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -3152,19 +3152,19 @@
         <v>19377</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11417</v>
+        <v>11251</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29948</v>
+        <v>29600</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01384755364887903</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008158833267157063</v>
+        <v>0.008040600931016703</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.021401362122891</v>
+        <v>0.02115266269523392</v>
       </c>
     </row>
     <row r="5">
@@ -3181,19 +3181,19 @@
         <v>3885</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9700</v>
+        <v>8775</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.00552301312485065</v>
+        <v>0.005523013124850649</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001384734264251645</v>
+        <v>0.001376591383837496</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01378836967080673</v>
+        <v>0.01247340811616521</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4694</v>
+        <v>4693</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.001336339445892473</v>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.006745415257040821</v>
+        <v>0.006743985450310752</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -3223,19 +3223,19 @@
         <v>4815</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>971</v>
+        <v>1892</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9705</v>
+        <v>11448</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003441058264884386</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0006941571481767731</v>
+        <v>0.001351904016466797</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006935140687803468</v>
+        <v>0.008180942661572611</v>
       </c>
     </row>
     <row r="6">
@@ -3299,19 +3299,19 @@
         <v>37438</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27213</v>
+        <v>25791</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51361</v>
+        <v>50511</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05321954369153994</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03868383127783398</v>
+        <v>0.03666292981723727</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07301044524415212</v>
+        <v>0.0718032852919579</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -3320,19 +3320,19 @@
         <v>41591</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30541</v>
+        <v>29320</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57438</v>
+        <v>56616</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05976880537311772</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04388985046772269</v>
+        <v>0.04213463915084788</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08254290664586232</v>
+        <v>0.08136183293624995</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -3341,19 +3341,19 @@
         <v>79029</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>65304</v>
+        <v>61429</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101266</v>
+        <v>97811</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05647636957115918</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04666842207026492</v>
+        <v>0.04389902725944556</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07236772409648475</v>
+        <v>0.06989862833736772</v>
       </c>
     </row>
     <row r="8">
@@ -3370,19 +3370,19 @@
         <v>648820</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>633087</v>
+        <v>634855</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>662414</v>
+        <v>663048</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9223155723760006</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8999507351247668</v>
+        <v>0.9024640243718539</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9416396336462028</v>
+        <v>0.942540200600033</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>605</v>
@@ -3391,19 +3391,19 @@
         <v>647287</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>631786</v>
+        <v>631957</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>659794</v>
+        <v>660075</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9301973196233126</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.907921504364448</v>
+        <v>0.9081675910632198</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9481712526067929</v>
+        <v>0.9485747006553562</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1228</v>
@@ -3412,19 +3412,19 @@
         <v>1296108</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1271972</v>
+        <v>1276317</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1312074</v>
+        <v>1315878</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9262350185150774</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9089869065633346</v>
+        <v>0.9120923472453774</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9376451486648013</v>
+        <v>0.9403633860194441</v>
       </c>
     </row>
     <row r="9">
@@ -3516,19 +3516,19 @@
         <v>11117</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5850</v>
+        <v>5245</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18207</v>
+        <v>19013</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01092056840357422</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005746786653157511</v>
+        <v>0.005152480144751934</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01788646476735666</v>
+        <v>0.0186780756134781</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3537,19 +3537,19 @@
         <v>15011</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7209</v>
+        <v>7943</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25005</v>
+        <v>25360</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0145589438262196</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00699155880944141</v>
+        <v>0.007704095899294153</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02425163915053774</v>
+        <v>0.02459569673493057</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -3558,19 +3558,19 @@
         <v>26128</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16939</v>
+        <v>17140</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38930</v>
+        <v>38842</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01275139698552304</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008267072385397525</v>
+        <v>0.008364878854249896</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0189994104474006</v>
+        <v>0.01895659427464011</v>
       </c>
     </row>
     <row r="11">
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5196</v>
+        <v>5190</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.001011415121660167</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.00510454366031019</v>
+        <v>0.00509851556592837</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -3608,19 +3608,19 @@
         <v>5039</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1873</v>
+        <v>2008</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13060</v>
+        <v>12980</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004887671840047564</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001816633401188272</v>
+        <v>0.001947336942062017</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01266640426048859</v>
+        <v>0.01258855584433738</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -3629,19 +3629,19 @@
         <v>6069</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2149</v>
+        <v>2063</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13985</v>
+        <v>15875</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.002961945445393197</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001048753339000476</v>
+        <v>0.001006609420239405</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.006825248123091912</v>
+        <v>0.007747528208753986</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>125275</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>105828</v>
+        <v>103331</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>149193</v>
+        <v>148386</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1230661862169007</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1039625611767058</v>
+        <v>0.1015089599820511</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1465629646746986</v>
+        <v>0.1457702973202595</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>89</v>
@@ -3726,19 +3726,19 @@
         <v>101412</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83558</v>
+        <v>82824</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122879</v>
+        <v>123810</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09835687768793552</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08104086824582804</v>
+        <v>0.08032907603925614</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.119177400217977</v>
+        <v>0.120080443305528</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>197</v>
@@ -3747,19 +3747,19 @@
         <v>226687</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>197700</v>
+        <v>197913</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>259602</v>
+        <v>256668</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1106324752772722</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09648559770294637</v>
+        <v>0.09658968108329992</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1266966031156903</v>
+        <v>0.1252647811230438</v>
       </c>
     </row>
     <row r="14">
@@ -3776,19 +3776,19 @@
         <v>880526</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>856045</v>
+        <v>857180</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>900891</v>
+        <v>903026</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8650018302578649</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8409519688810709</v>
+        <v>0.8420671232172648</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8850075995402561</v>
+        <v>0.8871048722638826</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>833</v>
@@ -3797,19 +3797,19 @@
         <v>909597</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>883791</v>
+        <v>885265</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>929393</v>
+        <v>930047</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8821965066457973</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8571679186689706</v>
+        <v>0.8585982328034374</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9013969367540452</v>
+        <v>0.9020307253671001</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1649</v>
@@ -3818,19 +3818,19 @@
         <v>1790123</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1755080</v>
+        <v>1756538</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1819979</v>
+        <v>1819670</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8736541822918116</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8565519989328185</v>
+        <v>0.8572634541909679</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8882254974059426</v>
+        <v>0.8880745890341398</v>
       </c>
     </row>
     <row r="15">
@@ -3922,19 +3922,19 @@
         <v>9419</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4417</v>
+        <v>4398</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17817</v>
+        <v>18290</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01246549528454764</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005845015340038094</v>
+        <v>0.005820202358572913</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0235792867131497</v>
+        <v>0.02420490480599205</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -3943,19 +3943,19 @@
         <v>9419</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4415</v>
+        <v>4817</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17843</v>
+        <v>18318</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01215239064023673</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005696561180056687</v>
+        <v>0.006215469527685562</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02302167975837228</v>
+        <v>0.02363405847252236</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -3964,19 +3964,19 @@
         <v>18838</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10792</v>
+        <v>11531</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28758</v>
+        <v>30131</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01230695555387541</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007050624003897988</v>
+        <v>0.00753345240485168</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01878739482055406</v>
+        <v>0.01968417774541674</v>
       </c>
     </row>
     <row r="17">
@@ -4087,19 +4087,19 @@
         <v>133216</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>111019</v>
+        <v>111968</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>157217</v>
+        <v>156908</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1762966097075294</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1469214566258925</v>
+        <v>0.1481777339540088</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2080592290244855</v>
+        <v>0.2076499627161624</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>98</v>
@@ -4108,19 +4108,19 @@
         <v>115914</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>97720</v>
+        <v>96149</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>140211</v>
+        <v>138029</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1495536728208613</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1260795248845154</v>
+        <v>0.1240521801858752</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.18090179261023</v>
+        <v>0.1780868112275721</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>210</v>
@@ -4129,19 +4129,19 @@
         <v>249130</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>217641</v>
+        <v>219172</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>281474</v>
+        <v>283753</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.162755392454978</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1421838078106369</v>
+        <v>0.1431836556007042</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1838852275011909</v>
+        <v>0.1853743819099709</v>
       </c>
     </row>
     <row r="20">
@@ -4158,19 +4158,19 @@
         <v>613001</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>589132</v>
+        <v>587387</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>635399</v>
+        <v>633444</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8112378950079229</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.779650204140139</v>
+        <v>0.7773417669242721</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8408791618532597</v>
+        <v>0.8382919637157717</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>596</v>
@@ -4179,19 +4179,19 @@
         <v>649735</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>625740</v>
+        <v>627083</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>669012</v>
+        <v>669544</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8382939365389019</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8073354902359382</v>
+        <v>0.809068644591871</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8631657194591529</v>
+        <v>0.8638518006932676</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1163</v>
@@ -4200,19 +4200,19 @@
         <v>1262735</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1230542</v>
+        <v>1229217</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1293377</v>
+        <v>1293560</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8249376519911465</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8039062272052725</v>
+        <v>0.8030402941661593</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8449557495447445</v>
+        <v>0.8450752239829917</v>
       </c>
     </row>
     <row r="21">
@@ -4304,19 +4304,19 @@
         <v>10165</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5367</v>
+        <v>5340</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17498</v>
+        <v>17943</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01074581008574019</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005673368738479219</v>
+        <v>0.005644845278822271</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01849792875442207</v>
+        <v>0.01896846086256205</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -4325,19 +4325,19 @@
         <v>11011</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5139</v>
+        <v>6026</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20180</v>
+        <v>21197</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01046777241902194</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004884995632510656</v>
+        <v>0.005729148563361104</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01918477054965345</v>
+        <v>0.02015072363367705</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -4346,19 +4346,19 @@
         <v>21176</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13282</v>
+        <v>13576</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31734</v>
+        <v>32495</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01059941971830282</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006648003064431161</v>
+        <v>0.006795212188100715</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01588371710746255</v>
+        <v>0.01626472898162943</v>
       </c>
     </row>
     <row r="23">
@@ -4375,19 +4375,19 @@
         <v>2876</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8139</v>
+        <v>8512</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003040081721272016</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.000971125852552942</v>
+        <v>0.0009733147462844336</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.008604167912570224</v>
+        <v>0.008998193762517573</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6442</v>
+        <v>5904</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0009385644001882729</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.006124565659752285</v>
+        <v>0.005613032956118721</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -4417,19 +4417,19 @@
         <v>3863</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1027</v>
+        <v>994</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9319</v>
+        <v>9533</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.001933606125930482</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0005140509386919186</v>
+        <v>0.0004975984597715442</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.004664654634387802</v>
+        <v>0.004771738238623557</v>
       </c>
     </row>
     <row r="24">
@@ -4493,19 +4493,19 @@
         <v>154208</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>131755</v>
+        <v>133849</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>178275</v>
+        <v>178729</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1630173124842921</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1392809072089069</v>
+        <v>0.1414945089347847</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.188458381524252</v>
+        <v>0.1889385926313153</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>172</v>
@@ -4514,19 +4514,19 @@
         <v>182887</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>159121</v>
+        <v>158893</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>210598</v>
+        <v>209846</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.173863169678151</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1512698637503322</v>
+        <v>0.1510527914536885</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2002066632430368</v>
+        <v>0.1994918189140727</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>314</v>
@@ -4535,19 +4535,19 @@
         <v>337095</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>302711</v>
+        <v>300678</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>368905</v>
+        <v>373618</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1687277942277286</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1515174056916017</v>
+        <v>0.1504997455154207</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1846497907735423</v>
+        <v>0.1870088542383561</v>
       </c>
     </row>
     <row r="26">
@@ -4564,19 +4564,19 @@
         <v>778714</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>755505</v>
+        <v>753879</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>803127</v>
+        <v>800325</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8231967957086956</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7986620940660786</v>
+        <v>0.7969434552067649</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8490046653563658</v>
+        <v>0.8460426097033352</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>820</v>
@@ -4585,19 +4585,19 @@
         <v>857016</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>828712</v>
+        <v>828273</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>881667</v>
+        <v>881839</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8147304935026387</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7878233091986316</v>
+        <v>0.7874057387528842</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8381657204165055</v>
+        <v>0.8383287470731241</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1572</v>
@@ -4606,19 +4606,19 @@
         <v>1635730</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1602951</v>
+        <v>1595354</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1671304</v>
+        <v>1670375</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8187391799280381</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8023324177135536</v>
+        <v>0.7985298717453003</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8365453739646485</v>
+        <v>0.836080497121835</v>
       </c>
     </row>
     <row r="27">
@@ -4710,19 +4710,19 @@
         <v>44026</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>32090</v>
+        <v>33137</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>59615</v>
+        <v>60080</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0128617880396444</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009374672055121805</v>
+        <v>0.009680580971180266</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01741603878407028</v>
+        <v>0.01755171850516599</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>38</v>
@@ -4731,19 +4731,19 @@
         <v>41493</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>29386</v>
+        <v>29998</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>56217</v>
+        <v>56324</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01167549000389507</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008268752204790087</v>
+        <v>0.008441003563024017</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01581833823556664</v>
+        <v>0.01584852631047856</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>80</v>
@@ -4752,19 +4752,19 @@
         <v>85519</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>68124</v>
+        <v>68037</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>107283</v>
+        <v>105452</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01225751274074197</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00976426286966057</v>
+        <v>0.009751717362184187</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01537694959023369</v>
+        <v>0.01511447849898514</v>
       </c>
     </row>
     <row r="29">
@@ -4781,19 +4781,19 @@
         <v>7791</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3786</v>
+        <v>3047</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14516</v>
+        <v>14645</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.002275958772842179</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001106014416434437</v>
+        <v>0.0008902044743738053</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.004240776418170404</v>
+        <v>0.00427844762393813</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -4802,19 +4802,19 @@
         <v>6957</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>14965</v>
+        <v>14985</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.001957478398995723</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0008413706059723663</v>
+        <v>0.000840727528529156</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.004210873925268342</v>
+        <v>0.004216456547318463</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>14</v>
@@ -4823,19 +4823,19 @@
         <v>14747</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7992</v>
+        <v>8208</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>24367</v>
+        <v>25063</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.002113731560707361</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.001145498330931826</v>
+        <v>0.001176409365430311</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.003492580853559819</v>
+        <v>0.003592326522686945</v>
       </c>
     </row>
     <row r="30">
@@ -4899,19 +4899,19 @@
         <v>450138</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>412045</v>
+        <v>408141</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>497243</v>
+        <v>493200</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1315032406959005</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1203749378174663</v>
+        <v>0.1192342452641286</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1452647166217631</v>
+        <v>0.1440835530283842</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>396</v>
@@ -4920,19 +4920,19 @@
         <v>441804</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>400065</v>
+        <v>402281</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>486153</v>
+        <v>484234</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1243155516420017</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1125709548638738</v>
+        <v>0.1131945933497691</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1367948149263638</v>
+        <v>0.1362546600499384</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>793</v>
@@ -4941,19 +4941,19 @@
         <v>891941</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>836436</v>
+        <v>834789</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>950672</v>
+        <v>950899</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1278419828832978</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1198864743764589</v>
+        <v>0.1196503773589358</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1362598684140179</v>
+        <v>0.1362924143833327</v>
       </c>
     </row>
     <row r="32">
@@ -4970,19 +4970,19 @@
         <v>2921061</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2872315</v>
+        <v>2877378</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2963663</v>
+        <v>2966011</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8533590124916129</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8391185419390145</v>
+        <v>0.840597549364597</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8658047980254168</v>
+        <v>0.8664909246514162</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2854</v>
@@ -4991,19 +4991,19 @@
         <v>3063634</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3019375</v>
+        <v>3021903</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3107512</v>
+        <v>3101497</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8620514799551074</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8495975414841861</v>
+        <v>0.8503089349705897</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8743978337141851</v>
+        <v>0.8727054336909696</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5612</v>
@@ -5012,19 +5012,19 @@
         <v>5984695</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5923718</v>
+        <v>5917269</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6037631</v>
+        <v>6044571</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8577867728152528</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8490468692587608</v>
+        <v>0.8481226123652834</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8653740217207972</v>
+        <v>0.8663688304303628</v>
       </c>
     </row>
     <row r="33">
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7134</v>
+        <v>6996</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003031792785496756</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01058408045602366</v>
+        <v>0.0103803537861946</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -5377,19 +5377,19 @@
         <v>4144</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>972</v>
+        <v>1456</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10565</v>
+        <v>10380</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006177180541016343</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00144846234344621</v>
+        <v>0.002169977291668513</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01574749870339009</v>
+        <v>0.01547191779581203</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -5398,19 +5398,19 @@
         <v>6188</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2595</v>
+        <v>2182</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13882</v>
+        <v>13093</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004600853280229818</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001929159356091148</v>
+        <v>0.001622350553736448</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0103218944288777</v>
+        <v>0.009735440117959888</v>
       </c>
     </row>
     <row r="5">
@@ -5427,19 +5427,19 @@
         <v>5873</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1950</v>
+        <v>1926</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14175</v>
+        <v>14727</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008714202648993636</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002893539362779748</v>
+        <v>0.002857434247143577</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02103101354273202</v>
+        <v>0.02185041722256212</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -5448,19 +5448,19 @@
         <v>10532</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5268</v>
+        <v>5166</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19866</v>
+        <v>18521</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01569775468614735</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007852579466860195</v>
+        <v>0.007699754038227567</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02961189370113775</v>
+        <v>0.02760604978407144</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -5469,19 +5469,19 @@
         <v>16405</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9448</v>
+        <v>9271</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27533</v>
+        <v>26416</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01219791164327641</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007025099340943058</v>
+        <v>0.006893500280786742</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02047241927525742</v>
+        <v>0.01964131296761232</v>
       </c>
     </row>
     <row r="6">
@@ -5511,19 +5511,19 @@
         <v>3552</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10923</v>
+        <v>11166</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005293733332244813</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001258858637340196</v>
+        <v>0.001262536768259848</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01628146620724978</v>
+        <v>0.01664293741038889</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -5532,19 +5532,19 @@
         <v>3552</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10623</v>
+        <v>10730</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002640751629652366</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0006268600815693202</v>
+        <v>0.0006274090326506049</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.007898995562155932</v>
+        <v>0.007978338977164554</v>
       </c>
     </row>
     <row r="7">
@@ -5561,19 +5561,19 @@
         <v>74681</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59101</v>
+        <v>59372</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93515</v>
+        <v>93533</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1108021285945559</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08768635750352713</v>
+        <v>0.08808927425846988</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1387455780548302</v>
+        <v>0.1387721452268585</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -5582,19 +5582,19 @@
         <v>48294</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36298</v>
+        <v>35823</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63044</v>
+        <v>63266</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07198447910660905</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05410336854710726</v>
+        <v>0.05339535586805203</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09397072391654608</v>
+        <v>0.09430174078091981</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>111</v>
@@ -5603,19 +5603,19 @@
         <v>122975</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>102533</v>
+        <v>99250</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>148232</v>
+        <v>143266</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09143814391474933</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07623871777371308</v>
+        <v>0.07379767504356237</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1102181845521719</v>
+        <v>0.1065256449793429</v>
       </c>
     </row>
     <row r="8">
@@ -5632,19 +5632,19 @@
         <v>591403</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>573060</v>
+        <v>571889</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>607702</v>
+        <v>608189</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8774518759709536</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8502359353436919</v>
+        <v>0.848499361510368</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9016342254683967</v>
+        <v>0.9023560903495575</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>600</v>
@@ -5653,19 +5653,19 @@
         <v>604373</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>586002</v>
+        <v>587494</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>617458</v>
+        <v>618972</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9008468523339824</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8734646789317988</v>
+        <v>0.8756877018409644</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9203506583434637</v>
+        <v>0.9226078638304154</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1180</v>
@@ -5674,19 +5674,19 @@
         <v>1195776</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1168485</v>
+        <v>1173382</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1217769</v>
+        <v>1221176</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8891223395320921</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8688299044135048</v>
+        <v>0.8724712644201313</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9054750843589282</v>
+        <v>0.9080081850104553</v>
       </c>
     </row>
     <row r="9">
@@ -5778,19 +5778,19 @@
         <v>7576</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3076</v>
+        <v>3408</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15021</v>
+        <v>15094</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007417119240157069</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003011497760745419</v>
+        <v>0.003336205177479355</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01470569681480702</v>
+        <v>0.01477720061834769</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -5799,19 +5799,19 @@
         <v>5580</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1906</v>
+        <v>1894</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13745</v>
+        <v>13777</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005350627153089095</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00182715917337437</v>
+        <v>0.001815857038009646</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01317899661533865</v>
+        <v>0.01320974512003566</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -5820,19 +5820,19 @@
         <v>13157</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6549</v>
+        <v>6675</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23048</v>
+        <v>23030</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006373135851456441</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003172341324688122</v>
+        <v>0.003233325583432319</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01116462912583245</v>
+        <v>0.01115601523863187</v>
       </c>
     </row>
     <row r="11">
@@ -5849,19 +5849,19 @@
         <v>6110</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2081</v>
+        <v>2221</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12438</v>
+        <v>13160</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005981202318092322</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002037593905625901</v>
+        <v>0.002174123078900053</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01217623456890777</v>
+        <v>0.01288312101559534</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -5870,19 +5870,19 @@
         <v>8140</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3950</v>
+        <v>3895</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15493</v>
+        <v>15925</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.007805427012532518</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003787475379554229</v>
+        <v>0.003734988602555495</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01485528094048903</v>
+        <v>0.01526933079230736</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -5891,19 +5891,19 @@
         <v>14250</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8098</v>
+        <v>8007</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>23488</v>
+        <v>23522</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006902793206424816</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003922786953790743</v>
+        <v>0.00387867501202866</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0113777708627554</v>
+        <v>0.01139430326427546</v>
       </c>
     </row>
     <row r="12">
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5429</v>
+        <v>4960</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0009752945846401104</v>
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.005314837722194366</v>
+        <v>0.004855511679226763</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4938</v>
+        <v>5885</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0009406545594040824</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.004734844267329332</v>
+        <v>0.005642942063930109</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7858</v>
+        <v>7580</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0009577945849271214</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.003806700824382412</v>
+        <v>0.003672039517495162</v>
       </c>
     </row>
     <row r="13">
@@ -5991,19 +5991,19 @@
         <v>147338</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>124658</v>
+        <v>123492</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>174087</v>
+        <v>172624</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1442424377447555</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1220392090520562</v>
+        <v>0.120897667430833</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1704292470612225</v>
+        <v>0.1689969160164187</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>131</v>
@@ -6012,19 +6012,19 @@
         <v>139271</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>117090</v>
+        <v>116447</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>162841</v>
+        <v>162926</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1335406946581765</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1122725287257322</v>
+        <v>0.1116551574553204</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1561407266133633</v>
+        <v>0.1562224820222685</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>255</v>
@@ -6033,19 +6033,19 @@
         <v>286609</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>254095</v>
+        <v>250254</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>321179</v>
+        <v>322583</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1388359607093742</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1230856404151298</v>
+        <v>0.121225169303434</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1555818231024967</v>
+        <v>0.1562620171885958</v>
       </c>
     </row>
     <row r="14">
@@ -6062,19 +6062,19 @@
         <v>859440</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>833262</v>
+        <v>833322</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>882855</v>
+        <v>883738</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.841383946112355</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8157560008650695</v>
+        <v>0.8158144531052898</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8643069293239246</v>
+        <v>0.8651711389754901</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>832</v>
@@ -6083,19 +6083,19 @@
         <v>888940</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>863455</v>
+        <v>866308</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>911883</v>
+        <v>913289</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8523625966167978</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8279263656469134</v>
+        <v>0.8306620100685643</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8743613033062512</v>
+        <v>0.8757091928121777</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1644</v>
@@ -6104,19 +6104,19 @@
         <v>1748380</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1712443</v>
+        <v>1713868</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1781067</v>
+        <v>1788473</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8469303156478175</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8295221094140983</v>
+        <v>0.8302125693985578</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8627641527213022</v>
+        <v>0.8663517995807227</v>
       </c>
     </row>
     <row r="15">
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7602</v>
+        <v>7495</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002828751811535538</v>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01000874705360198</v>
+        <v>0.00986799456733662</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4669</v>
+        <v>5210</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001186782983083719</v>
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.005963461165844546</v>
+        <v>0.006654173517406632</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -6250,19 +6250,19 @@
         <v>3078</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9263</v>
+        <v>8260</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001995308036104456</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0006017291044012682</v>
+        <v>0.0006024376097863445</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006005182928144231</v>
+        <v>0.005354762084097959</v>
       </c>
     </row>
     <row r="17">
@@ -6279,19 +6279,19 @@
         <v>4438</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10378</v>
+        <v>10376</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005843254748334973</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001336229309254451</v>
+        <v>0.001337927201634704</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01366338645129876</v>
+        <v>0.01366126925484551</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -6300,19 +6300,19 @@
         <v>3191</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8842</v>
+        <v>8352</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.004076127447690713</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001196104710623891</v>
+        <v>0.00119848255751388</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01129283237588762</v>
+        <v>0.01066772526455339</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -6321,19 +6321,19 @@
         <v>7630</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3865</v>
+        <v>3191</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16104</v>
+        <v>15266</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.00494628202656597</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002505771523223487</v>
+        <v>0.002068525773549017</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01044024322070902</v>
+        <v>0.009896887530748411</v>
       </c>
     </row>
     <row r="18">
@@ -6397,19 +6397,19 @@
         <v>137943</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>115458</v>
+        <v>116948</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>161980</v>
+        <v>161567</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1816112778612969</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1520074518811734</v>
+        <v>0.1539693625061919</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2132579013854436</v>
+        <v>0.2127140139471743</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>131</v>
@@ -6418,19 +6418,19 @@
         <v>134591</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>114154</v>
+        <v>115803</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>156980</v>
+        <v>157100</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1719002661238708</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1457971082648189</v>
+        <v>0.147903429908067</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.200494648863749</v>
+        <v>0.2006483176980096</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>250</v>
@@ -6439,19 +6439,19 @@
         <v>272535</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>239507</v>
+        <v>242752</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>303253</v>
+        <v>303569</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1766820842338349</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1552705948122728</v>
+        <v>0.1573743100683165</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1965964861343938</v>
+        <v>0.1968014856765647</v>
       </c>
     </row>
     <row r="20">
@@ -6468,19 +6468,19 @@
         <v>615022</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>592595</v>
+        <v>590893</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>637903</v>
+        <v>636695</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8097167155788325</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7801898150874407</v>
+        <v>0.7779497284430161</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8398415987631469</v>
+        <v>0.8382507651580797</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>599</v>
@@ -6489,19 +6489,19 @@
         <v>644250</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>621801</v>
+        <v>621966</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>665004</v>
+        <v>664609</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8228368234453547</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7941648516574951</v>
+        <v>0.7943757585746483</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8493442254807805</v>
+        <v>0.8488395896331408</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1170</v>
@@ -6510,19 +6510,19 @@
         <v>1259272</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1227234</v>
+        <v>1226469</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1291066</v>
+        <v>1288937</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8163763257034946</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7956066749291816</v>
+        <v>0.7951103400749737</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8369879159821881</v>
+        <v>0.8356081541318627</v>
       </c>
     </row>
     <row r="21">
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6331</v>
+        <v>5325</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001130935214126678</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.006784145250655644</v>
+        <v>0.005706755634732149</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -6635,19 +6635,19 @@
         <v>2904</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8895</v>
+        <v>8563</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002799260293921137</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0008724830476603816</v>
+        <v>0.0008661319170505575</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.008574635184795844</v>
+        <v>0.008254883786748128</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -6656,19 +6656,19 @@
         <v>3959</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1002</v>
+        <v>1023</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8874</v>
+        <v>9939</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002009174009418003</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0005083336652267382</v>
+        <v>0.0005191522782693119</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.00450348977670646</v>
+        <v>0.00504378512603488</v>
       </c>
     </row>
     <row r="23">
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3629</v>
+        <v>4548</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0009624475161001819</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.003889187391563798</v>
+        <v>0.004873426058354961</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -6706,19 +6706,19 @@
         <v>8430</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3926</v>
+        <v>4102</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17908</v>
+        <v>16924</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008127259375021692</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003785167932036679</v>
+        <v>0.00395493917895288</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01726370469538838</v>
+        <v>0.01631500610132848</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -6727,19 +6727,19 @@
         <v>9329</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4992</v>
+        <v>4196</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>17090</v>
+        <v>16916</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.004734143938864181</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002533314106508008</v>
+        <v>0.002129332830806906</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.008673179499785435</v>
+        <v>0.00858467294517464</v>
       </c>
     </row>
     <row r="24">
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4988</v>
+        <v>4003</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001062852154257922</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.005344821625665032</v>
+        <v>0.004289769131329079</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -6777,19 +6777,19 @@
         <v>3097</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9912</v>
+        <v>8558</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.002985301235484833</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0008867466084737639</v>
+        <v>0.0008883195247075295</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.009555727771179079</v>
+        <v>0.008250186258149474</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -6798,19 +6798,19 @@
         <v>4089</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9937</v>
+        <v>10128</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.002074866770326421</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0005038447960154077</v>
+        <v>0.0005053416989073906</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.005042667734002347</v>
+        <v>0.005139711277505736</v>
       </c>
     </row>
     <row r="25">
@@ -6827,19 +6827,19 @@
         <v>167760</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>145350</v>
+        <v>144455</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>194585</v>
+        <v>192755</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1797702691661098</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1557561779770811</v>
+        <v>0.1547968363016145</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2085158365040798</v>
+        <v>0.2065545795102637</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>153</v>
@@ -6848,19 +6848,19 @@
         <v>161782</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>139766</v>
+        <v>136793</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>189301</v>
+        <v>183803</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1559627233698201</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1347394713522752</v>
+        <v>0.1318724938651077</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1824924626378449</v>
+        <v>0.1771920806533745</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>313</v>
@@ -6869,19 +6869,19 @@
         <v>329541</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>296271</v>
+        <v>295868</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>365725</v>
+        <v>364103</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1672375136544846</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.15035314536154</v>
+        <v>0.1501489521290272</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1856001344471874</v>
+        <v>0.1847770141477501</v>
       </c>
     </row>
     <row r="26">
@@ -6898,19 +6898,19 @@
         <v>762485</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>736524</v>
+        <v>737952</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>785725</v>
+        <v>785967</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8170734959494054</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7892539274732081</v>
+        <v>0.7907841662832912</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8419776750621031</v>
+        <v>0.8422369814780087</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>786</v>
@@ -6919,19 +6919,19 @@
         <v>861097</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>833702</v>
+        <v>837281</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>883543</v>
+        <v>885288</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8301254557257522</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8037165610087638</v>
+        <v>0.8071664750930307</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8517641189430977</v>
+        <v>0.8534468911061646</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1550</v>
@@ -6940,19 +6940,19 @@
         <v>1623581</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1584670</v>
+        <v>1588840</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1657145</v>
+        <v>1657696</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8239443016269068</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8041971934829603</v>
+        <v>0.8063135665552962</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8409774435319529</v>
+        <v>0.8412570941568943</v>
       </c>
     </row>
     <row r="27">
@@ -7044,19 +7044,19 @@
         <v>12824</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6779</v>
+        <v>7021</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>22728</v>
+        <v>22156</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.003784804125458554</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002000668513802901</v>
+        <v>0.002072236145588021</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.006707948983515523</v>
+        <v>0.006539133546622264</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>13</v>
@@ -7065,19 +7065,19 @@
         <v>13557</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7553</v>
+        <v>7488</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>23992</v>
+        <v>23130</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.003836184758133722</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002137155696435607</v>
+        <v>0.002118864799190606</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.006788688251220558</v>
+        <v>0.006544853292700153</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>25</v>
@@ -7086,19 +7086,19 @@
         <v>26381</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>18164</v>
+        <v>17839</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>40340</v>
+        <v>39484</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.00381103581671935</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002623980581811233</v>
+        <v>0.002577006742895844</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.005827491663543688</v>
+        <v>0.005703886656649338</v>
       </c>
     </row>
     <row r="29">
@@ -7115,19 +7115,19 @@
         <v>17319</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10267</v>
+        <v>10629</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27597</v>
+        <v>28271</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.005111660418762669</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003030291515838811</v>
+        <v>0.003137114125776511</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.008144981595694874</v>
+        <v>0.008344051879040304</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>29</v>
@@ -7136,19 +7136,19 @@
         <v>30294</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>21629</v>
+        <v>20757</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>42351</v>
+        <v>43815</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.008571922526267064</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006120239871603449</v>
+        <v>0.005873416317727748</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01198361952474328</v>
+        <v>0.01239771870010622</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>45</v>
@@ -7157,19 +7157,19 @@
         <v>47613</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>35378</v>
+        <v>35977</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>64230</v>
+        <v>63878</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.006878250718639518</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005110801080042662</v>
+        <v>0.00519724774172806</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.009278750065487937</v>
+        <v>0.009227841916526895</v>
       </c>
     </row>
     <row r="30">
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5983</v>
+        <v>6951</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0005867615708627396</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.001765841262978612</v>
+        <v>0.002051421277091299</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -7207,19 +7207,19 @@
         <v>7629</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3002</v>
+        <v>2896</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>15558</v>
+        <v>15023</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.002158762363611028</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0008495618510466421</v>
+        <v>0.0008194850530279105</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.00440223996552753</v>
+        <v>0.004250906967861523</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -7228,19 +7228,19 @@
         <v>9617</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4284</v>
+        <v>4839</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>17391</v>
+        <v>17796</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.001389325441918948</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0006188004930581148</v>
+        <v>0.0006990712933351889</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.002512362778540654</v>
+        <v>0.002570797069076899</v>
       </c>
     </row>
     <row r="31">
@@ -7257,19 +7257,19 @@
         <v>527722</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>481155</v>
+        <v>486043</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>573531</v>
+        <v>576290</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1557526686850779</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1420089320243199</v>
+        <v>0.1434515190227468</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1692727978116866</v>
+        <v>0.1700871206464859</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>462</v>
@@ -7278,19 +7278,19 @@
         <v>483938</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>445538</v>
+        <v>448300</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>531304</v>
+        <v>530631</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1369347807390182</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1260690686370904</v>
+        <v>0.126850558401667</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1503373154570137</v>
+        <v>0.150146805436835</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>929</v>
@@ -7299,19 +7299,19 @@
         <v>1011660</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>952842</v>
+        <v>949199</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1077823</v>
+        <v>1071476</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1461454489783447</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1376485349650236</v>
+        <v>0.1371223386564296</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1557035103146694</v>
+        <v>0.1547865989493796</v>
       </c>
     </row>
     <row r="32">
@@ -7328,19 +7328,19 @@
         <v>2828351</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2780050</v>
+        <v>2777152</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2874127</v>
+        <v>2870663</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8347641051998381</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8205085216080663</v>
+        <v>0.8196531462809147</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8482744923157413</v>
+        <v>0.8472519930217594</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2817</v>
@@ -7349,19 +7349,19 @@
         <v>2998659</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2953978</v>
+        <v>2952462</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3041870</v>
+        <v>3036258</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.84849834961297</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8358552748143335</v>
+        <v>0.8354263687885073</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8607251102681081</v>
+        <v>0.8591373085241986</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5544</v>
@@ -7370,19 +7370,19 @@
         <v>5827010</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5757701</v>
+        <v>5765015</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5884490</v>
+        <v>5887654</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8417759390443775</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8317635839416881</v>
+        <v>0.8328201395149588</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8500796444039701</v>
+        <v>0.8505367512249343</v>
       </c>
     </row>
     <row r="33">
@@ -7761,19 +7761,19 @@
         <v>16678</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10222</v>
+        <v>10163</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27166</v>
+        <v>28018</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02438192843549947</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01494432445881936</v>
+        <v>0.01485823913662713</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03971503857262933</v>
+        <v>0.04096055092629265</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -7782,19 +7782,19 @@
         <v>19276</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12223</v>
+        <v>12147</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30467</v>
+        <v>30676</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02641135682878229</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01674706935110862</v>
+        <v>0.01664297808539424</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04174463688674996</v>
+        <v>0.04203123921022604</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>41</v>
@@ -7803,19 +7803,19 @@
         <v>35954</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25922</v>
+        <v>25771</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52046</v>
+        <v>50867</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02542952120976281</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01833458684439574</v>
+        <v>0.01822779074129558</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03681159102638191</v>
+        <v>0.03597766369634042</v>
       </c>
     </row>
     <row r="6">
@@ -7832,19 +7832,19 @@
         <v>18999</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7375</v>
+        <v>8850</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39402</v>
+        <v>37665</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02777485720457175</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01078122829998789</v>
+        <v>0.01293789271913751</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05760408475116172</v>
+        <v>0.05506459175352799</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -7853,19 +7853,19 @@
         <v>6148</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2023</v>
+        <v>2181</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13055</v>
+        <v>13701</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.008423617876648437</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00277167283015863</v>
+        <v>0.002988767212700759</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01788700038118998</v>
+        <v>0.01877213588315533</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -7874,19 +7874,19 @@
         <v>25146</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>12967</v>
+        <v>13466</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45952</v>
+        <v>44396</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01778572994091874</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009171224771486118</v>
+        <v>0.009524653807678867</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03250096239325075</v>
+        <v>0.03140072595098971</v>
       </c>
     </row>
     <row r="7">
@@ -7903,19 +7903,19 @@
         <v>59477</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43292</v>
+        <v>43994</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>79319</v>
+        <v>78419</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08695181881373691</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06329085818301039</v>
+        <v>0.0643168138382185</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1159592726608083</v>
+        <v>0.114644443281516</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -7924,19 +7924,19 @@
         <v>56085</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44286</v>
+        <v>44036</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71197</v>
+        <v>72005</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07684584970097642</v>
+        <v>0.07684584970097641</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06067953888683252</v>
+        <v>0.06033730903609628</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09755304160223184</v>
+        <v>0.09865969130476267</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>120</v>
@@ -7945,19 +7945,19 @@
         <v>115562</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>95498</v>
+        <v>96460</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>140503</v>
+        <v>138295</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08173510840675832</v>
+        <v>0.08173510840675831</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06754439794941339</v>
+        <v>0.06822495885340167</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0993755798441089</v>
+        <v>0.09781418973131957</v>
       </c>
     </row>
     <row r="8">
@@ -7974,19 +7974,19 @@
         <v>588868</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>564471</v>
+        <v>562603</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>609738</v>
+        <v>607196</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8608913955461918</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8252246365458236</v>
+        <v>0.8224937244075923</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8914026243650293</v>
+        <v>0.887685719573606</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1135</v>
@@ -7995,19 +7995,19 @@
         <v>648325</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>630711</v>
+        <v>630256</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>664302</v>
+        <v>663660</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8883191755935929</v>
+        <v>0.8883191755935926</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8641852055941771</v>
+        <v>0.8635615685649637</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9102108461689838</v>
+        <v>0.9093311997956924</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1790</v>
@@ -8016,19 +8016,19 @@
         <v>1237192</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1207280</v>
+        <v>1207747</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1263703</v>
+        <v>1262362</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8750496404425602</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8538927360985871</v>
+        <v>0.8542235623547045</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8938002877382256</v>
+        <v>0.892851660411826</v>
       </c>
     </row>
     <row r="9">
@@ -8167,19 +8167,19 @@
         <v>18797</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11145</v>
+        <v>11375</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28730</v>
+        <v>28234</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01808562258124739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01072302115525506</v>
+        <v>0.0109440611440701</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02764270000948536</v>
+        <v>0.02716465313810523</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -8188,19 +8188,19 @@
         <v>15571</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9788</v>
+        <v>9863</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23200</v>
+        <v>24088</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01457900800138432</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.009164182963982123</v>
+        <v>0.009234468747654804</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02172177418862225</v>
+        <v>0.0225536553981945</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>41</v>
@@ -8209,19 +8209,19 @@
         <v>34368</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>24839</v>
+        <v>24637</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>46256</v>
+        <v>45859</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0163084446808803</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01178645446286142</v>
+        <v>0.0116905511908598</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02194924603107459</v>
+        <v>0.02176125729268854</v>
       </c>
     </row>
     <row r="12">
@@ -8238,19 +8238,19 @@
         <v>4743</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11973</v>
+        <v>11452</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.004563381034474268</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00137205187837571</v>
+        <v>0.001367053236174563</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01151940696851854</v>
+        <v>0.01101876768562191</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -8259,19 +8259,19 @@
         <v>5306</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2531</v>
+        <v>2807</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9554</v>
+        <v>9434</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.004968083496975747</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002369515998843477</v>
+        <v>0.002628161400725577</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.008945368290566025</v>
+        <v>0.008832555542756757</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -8280,19 +8280,19 @@
         <v>10049</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5311</v>
+        <v>5525</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17567</v>
+        <v>17987</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.004768487200607262</v>
+        <v>0.004768487200607261</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0025200290146275</v>
+        <v>0.002621522159710112</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.008336091598557312</v>
+        <v>0.008535145239620668</v>
       </c>
     </row>
     <row r="13">
@@ -8309,19 +8309,19 @@
         <v>140799</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>115033</v>
+        <v>114207</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>168561</v>
+        <v>168649</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1354682933622517</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1106782308116994</v>
+        <v>0.1098827212554978</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1621794019200352</v>
+        <v>0.1622643933636259</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>125</v>
@@ -8330,19 +8330,19 @@
         <v>107632</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89070</v>
+        <v>88303</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>128222</v>
+        <v>127113</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1007748945053428</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08339569010137393</v>
+        <v>0.08267783868501331</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1200533818360784</v>
+        <v>0.1190154710786991</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>233</v>
@@ -8351,19 +8351,19 @@
         <v>248431</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>220119</v>
+        <v>218459</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>287109</v>
+        <v>283421</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1178854252332066</v>
+        <v>0.1178854252332065</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1044509387468109</v>
+        <v>0.1036632304320291</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.136239172391461</v>
+        <v>0.1344890724588113</v>
       </c>
     </row>
     <row r="14">
@@ -8380,19 +8380,19 @@
         <v>875011</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>848231</v>
+        <v>846387</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>901493</v>
+        <v>904158</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8418827030220267</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8161168052808101</v>
+        <v>0.8143430208443692</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.86736215730996</v>
+        <v>0.8699260268155776</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1356</v>
@@ -8401,19 +8401,19 @@
         <v>939532</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>918383</v>
+        <v>917538</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>960076</v>
+        <v>958731</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8796780139962971</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8598765694433164</v>
+        <v>0.8590847452242811</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8989133520154359</v>
+        <v>0.8976536457672164</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2183</v>
@@ -8422,19 +8422,19 @@
         <v>1814543</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1776093</v>
+        <v>1777866</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1845005</v>
+        <v>1848430</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.861037642885306</v>
+        <v>0.8610376428853058</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8427922008124796</v>
+        <v>0.8436336321928105</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8754924495155216</v>
+        <v>0.8771176832748248</v>
       </c>
     </row>
     <row r="15">
@@ -8573,19 +8573,19 @@
         <v>14035</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6584</v>
+        <v>7088</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28435</v>
+        <v>29287</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01757291060066422</v>
+        <v>0.01757291060066421</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008243787912814783</v>
+        <v>0.008874379249828415</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03560247596538566</v>
+        <v>0.03666952538819392</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -8594,19 +8594,19 @@
         <v>6007</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2611</v>
+        <v>2809</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11241</v>
+        <v>11413</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.007451379872354673</v>
+        <v>0.007451379872354675</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003237969429292761</v>
+        <v>0.003484097364451997</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01394265394658351</v>
+        <v>0.01415654138771736</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -8615,19 +8615,19 @@
         <v>20043</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12324</v>
+        <v>12318</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>35178</v>
+        <v>34866</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01248834710180347</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0076791318070697</v>
+        <v>0.007675495309169113</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02191936673494167</v>
+        <v>0.02172466926507863</v>
       </c>
     </row>
     <row r="18">
@@ -8644,19 +8644,19 @@
         <v>6195</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2137</v>
+        <v>2478</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14335</v>
+        <v>16671</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.007757004883583773</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002675530267084337</v>
+        <v>0.003103072912278911</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0179478621502709</v>
+        <v>0.02087271402688963</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -8665,19 +8665,19 @@
         <v>12056</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6162</v>
+        <v>6900</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23923</v>
+        <v>23617</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01495365224394769</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007643114784684605</v>
+        <v>0.00855789410818774</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02967272215542769</v>
+        <v>0.02929385909677265</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -8686,19 +8686,19 @@
         <v>18251</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11874</v>
+        <v>10550</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>31995</v>
+        <v>29689</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0113722495995172</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.007398584630444426</v>
+        <v>0.006573470420774497</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0199361061785159</v>
+        <v>0.01849890129704499</v>
       </c>
     </row>
     <row r="19">
@@ -8715,19 +8715,19 @@
         <v>132444</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>107154</v>
+        <v>109599</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>158397</v>
+        <v>161801</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1658296261390206</v>
+        <v>0.1658296261390205</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1341645099105697</v>
+        <v>0.1372263605668849</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.198324176046258</v>
+        <v>0.2025871764952801</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>133</v>
@@ -8736,19 +8736,19 @@
         <v>128196</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>108255</v>
+        <v>107398</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>153568</v>
+        <v>151915</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.15900867189197</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1342750448759431</v>
+        <v>0.1332116883377215</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1904789810826547</v>
+        <v>0.1884277540011214</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>237</v>
@@ -8757,19 +8757,19 @@
         <v>260640</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>227485</v>
+        <v>225796</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>295170</v>
+        <v>299530</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1624031113239295</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1417441605711333</v>
+        <v>0.1406921017687313</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1839182351400674</v>
+        <v>0.1866348100460527</v>
       </c>
     </row>
     <row r="20">
@@ -8786,19 +8786,19 @@
         <v>646001</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>617050</v>
+        <v>616165</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>671850</v>
+        <v>671196</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8088404583767316</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7725922030912579</v>
+        <v>0.7714840064816502</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8412055963267406</v>
+        <v>0.8403872210288318</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>886</v>
@@ -8807,19 +8807,19 @@
         <v>659962</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>635355</v>
+        <v>636175</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>681032</v>
+        <v>681412</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8185862959917276</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7880648536451017</v>
+        <v>0.7890822025400985</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8447204424590864</v>
+        <v>0.8451916096434742</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1441</v>
@@ -8828,19 +8828,19 @@
         <v>1305964</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1266837</v>
+        <v>1265111</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1340834</v>
+        <v>1342304</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8137362919747497</v>
+        <v>0.8137362919747499</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7893569738150249</v>
+        <v>0.7882813680674269</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8354635412677656</v>
+        <v>0.8363796204638205</v>
       </c>
     </row>
     <row r="21">
@@ -8979,19 +8979,19 @@
         <v>14078</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7907</v>
+        <v>7844</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>23968</v>
+        <v>23840</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01426504283259784</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.008011566475688273</v>
+        <v>0.007948157161452992</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02428523715232059</v>
+        <v>0.0241560141063551</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>18</v>
@@ -9000,19 +9000,19 @@
         <v>14361</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8670</v>
+        <v>8362</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>22640</v>
+        <v>24234</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01285724411612491</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.007762301860494042</v>
+        <v>0.007486241247868576</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02026850278079574</v>
+        <v>0.02169607392488618</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>32</v>
@@ -9021,19 +9021,19 @@
         <v>28440</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>19836</v>
+        <v>19322</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>40640</v>
+        <v>40590</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.01351762718593912</v>
+        <v>0.01351762718593913</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.009428120463694298</v>
+        <v>0.009183902343812451</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01931654534384759</v>
+        <v>0.0192926995858215</v>
       </c>
     </row>
     <row r="24">
@@ -9050,19 +9050,19 @@
         <v>9158</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3628</v>
+        <v>3948</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24592</v>
+        <v>22595</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.009279128890971731</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.003675579210924519</v>
+        <v>0.004000119694583713</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02491770510332188</v>
+        <v>0.02289472496449877</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -9071,19 +9071,19 @@
         <v>5186</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1972</v>
+        <v>1989</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10516</v>
+        <v>9942</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.004642407773881345</v>
+        <v>0.004642407773881344</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.001765679004750569</v>
+        <v>0.001780376300597873</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.009414801935925282</v>
+        <v>0.008900740198770246</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -9092,19 +9092,19 @@
         <v>14343</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8060</v>
+        <v>7735</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>27860</v>
+        <v>26744</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.006817443231256983</v>
+        <v>0.006817443231256984</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.003830957911091029</v>
+        <v>0.003676716575810601</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01324206886402097</v>
+        <v>0.01271152337102721</v>
       </c>
     </row>
     <row r="25">
@@ -9121,19 +9121,19 @@
         <v>165692</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>139474</v>
+        <v>141500</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>193731</v>
+        <v>196908</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1678876011661994</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1413224209299453</v>
+        <v>0.1433751842648408</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1962976255528915</v>
+        <v>0.1995171658741885</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>190</v>
@@ -9142,19 +9142,19 @@
         <v>164214</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>139764</v>
+        <v>141341</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>186668</v>
+        <v>186132</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1470143444894728</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1251251634114502</v>
+        <v>0.1265370786840451</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.167116872815457</v>
+        <v>0.1666368349831586</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>329</v>
@@ -9163,19 +9163,19 @@
         <v>329906</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>294024</v>
+        <v>295320</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>365065</v>
+        <v>366547</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1568057622254768</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1397510640540848</v>
+        <v>0.1403669103107896</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1735173923090305</v>
+        <v>0.1742215543031422</v>
       </c>
     </row>
     <row r="26">
@@ -9192,19 +9192,19 @@
         <v>797995</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>768585</v>
+        <v>766028</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>825176</v>
+        <v>824916</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.808568227110231</v>
+        <v>0.8085682271102309</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7787693052803989</v>
+        <v>0.7761783926065413</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.836109393228203</v>
+        <v>0.8358465262739696</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1344</v>
@@ -9213,19 +9213,19 @@
         <v>933230</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>911125</v>
+        <v>909983</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>957593</v>
+        <v>956920</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8354860036205208</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8156966221548596</v>
+        <v>0.8146740077991436</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8572975140852691</v>
+        <v>0.8566955150119493</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2187</v>
@@ -9234,19 +9234,19 @@
         <v>1731224</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1693299</v>
+        <v>1691022</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1767250</v>
+        <v>1766221</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8228591673573269</v>
+        <v>0.8228591673573271</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8048330378088285</v>
+        <v>0.8037509634332687</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8399822569059118</v>
+        <v>0.8394933445640151</v>
       </c>
     </row>
     <row r="27">
@@ -9385,19 +9385,19 @@
         <v>63589</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>49560</v>
+        <v>48075</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>85026</v>
+        <v>82214</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01812173056499867</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01412378218812643</v>
+        <v>0.01370057905493988</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02423100413167514</v>
+        <v>0.02342961424638692</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>72</v>
@@ -9406,19 +9406,19 @@
         <v>55216</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>43120</v>
+        <v>43553</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>68897</v>
+        <v>71438</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.01483860713574093</v>
+        <v>0.01483860713574092</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0115881332167316</v>
+        <v>0.01170442330296462</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01851518930146876</v>
+        <v>0.01919816825169813</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>132</v>
@@ -9427,19 +9427,19 @@
         <v>118804</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>99421</v>
+        <v>98375</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>143454</v>
+        <v>143492</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01643200827255385</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01375111531661126</v>
+        <v>0.01360645402956358</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01984132970470993</v>
+        <v>0.01984663000468807</v>
       </c>
     </row>
     <row r="30">
@@ -9456,19 +9456,19 @@
         <v>39095</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>24885</v>
+        <v>25225</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>60301</v>
+        <v>60613</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.01114135118916345</v>
+        <v>0.01114135118916344</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0070919013833028</v>
+        <v>0.007188666546250095</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01718468472578034</v>
+        <v>0.01727377707616353</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>36</v>
@@ -9477,19 +9477,19 @@
         <v>28695</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>19291</v>
+        <v>19614</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>39927</v>
+        <v>43249</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.007711576726432729</v>
+        <v>0.007711576726432726</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.005184307121190551</v>
+        <v>0.0052710664931506</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0107299027287008</v>
+        <v>0.01162276458387457</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>59</v>
@@ -9498,19 +9498,19 @@
         <v>67790</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>50267</v>
+        <v>50167</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>92846</v>
+        <v>91795</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.009376152136307764</v>
+        <v>0.009376152136307768</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.006952551172476206</v>
+        <v>0.006938665329113938</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01284165507955954</v>
+        <v>0.01269637081812902</v>
       </c>
     </row>
     <row r="31">
@@ -9527,19 +9527,19 @@
         <v>498412</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>445818</v>
+        <v>452598</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>543121</v>
+        <v>545216</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1420394210487126</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1270510305368305</v>
+        <v>0.1289830764366077</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1547807175627253</v>
+        <v>0.1553778749254128</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>518</v>
@@ -9548,19 +9548,19 @@
         <v>456126</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>418003</v>
+        <v>417781</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>500276</v>
+        <v>494991</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1225787892336193</v>
+        <v>0.1225787892336192</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1123336430726388</v>
+        <v>0.1122739756566129</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1344436053884401</v>
+        <v>0.1330230979951428</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>919</v>
@@ -9569,19 +9569,19 @@
         <v>954538</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>889693</v>
+        <v>893379</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1014616</v>
+        <v>1020173</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1320236345236051</v>
+        <v>0.1320236345236052</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1230547298212205</v>
+        <v>0.1235645998402775</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1403330340035073</v>
+        <v>0.1411017337240976</v>
       </c>
     </row>
     <row r="32">
@@ -9598,19 +9598,19 @@
         <v>2907874</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2857436</v>
+        <v>2853501</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2961983</v>
+        <v>2958373</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.8286974971971252</v>
+        <v>0.8286974971971254</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.81432338270462</v>
+        <v>0.8132019734770751</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8441177133832328</v>
+        <v>0.8430890844304409</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4721</v>
@@ -9619,19 +9619,19 @@
         <v>3181049</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3138152</v>
+        <v>3137718</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3221678</v>
+        <v>3220370</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.854871026904207</v>
+        <v>0.8548710269042071</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8433428135760502</v>
+        <v>0.843226212228829</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8657894255394163</v>
+        <v>0.8654380448282859</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7601</v>
@@ -9640,19 +9640,19 @@
         <v>6088923</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6018654</v>
+        <v>6017052</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6154429</v>
+        <v>6154848</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.842168205067533</v>
+        <v>0.8421682050675333</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8324492023372801</v>
+        <v>0.8322276475763386</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8512284510158548</v>
+        <v>0.8512863954237714</v>
       </c>
     </row>
     <row r="33">
